--- a/rosters/2023/Houston/Houston.xlsx
+++ b/rosters/2023/Houston/Houston.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
   <si>
     <t>No.</t>
   </si>
@@ -46,45 +46,33 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Kenyon Martin Jr.</t>
+  </si>
+  <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
+    <t>Jabari Smith Jr.</t>
+  </si>
+  <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Kenyon Martin Jr.</t>
-  </si>
-  <si>
-    <t>Tari Eason</t>
-  </si>
-  <si>
-    <t>Jabari Smith Jr.</t>
+    <t>Alperen Şengün</t>
+  </si>
+  <si>
+    <t>Usman Garuba</t>
+  </si>
+  <si>
+    <t>Daishen Nix</t>
   </si>
   <si>
     <t>Kevin Porter Jr.</t>
   </si>
   <si>
-    <t>Usman Garuba</t>
-  </si>
-  <si>
-    <t>Alperen Şengün</t>
-  </si>
-  <si>
-    <t>Eric Gordon</t>
-  </si>
-  <si>
-    <t>Garrison Mathews</t>
-  </si>
-  <si>
-    <t>Daishen Nix</t>
-  </si>
-  <si>
     <t>Josh Christopher</t>
   </si>
   <si>
-    <t>Bruno Fernando</t>
-  </si>
-  <si>
-    <t>Boban Marjanović</t>
-  </si>
-  <si>
     <t>TyTy Washington Jr.</t>
   </si>
   <si>
@@ -97,90 +85,90 @@
     <t>Darius Days (TW)</t>
   </si>
   <si>
+    <t>Frank Kaminsky</t>
+  </si>
+  <si>
+    <t>Danny Green</t>
+  </si>
+  <si>
+    <t>John Wall</t>
+  </si>
+  <si>
+    <t>Justin Holiday</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>PF</t>
+    <t>C</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>C</t>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>6-10</t>
   </si>
   <si>
     <t>6-4</t>
   </si>
   <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>6-8</t>
-  </si>
-  <si>
-    <t>6-10</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>7-3</t>
-  </si>
-  <si>
     <t>6-0</t>
   </si>
   <si>
     <t>6-7</t>
   </si>
   <si>
+    <t>7-0</t>
+  </si>
+  <si>
+    <t>January 6, 2001</t>
+  </si>
+  <si>
+    <t>May 10, 2001</t>
+  </si>
+  <si>
+    <t>May 13, 2003</t>
+  </si>
+  <si>
     <t>February 9, 2002</t>
   </si>
   <si>
-    <t>January 6, 2001</t>
-  </si>
-  <si>
-    <t>May 10, 2001</t>
-  </si>
-  <si>
-    <t>May 13, 2003</t>
+    <t>July 25, 2002</t>
+  </si>
+  <si>
+    <t>March 9, 2002</t>
+  </si>
+  <si>
+    <t>February 13, 2002</t>
   </si>
   <si>
     <t>May 4, 2000</t>
   </si>
   <si>
-    <t>March 9, 2002</t>
-  </si>
-  <si>
-    <t>July 25, 2002</t>
-  </si>
-  <si>
-    <t>December 25, 1988</t>
-  </si>
-  <si>
-    <t>October 24, 1996</t>
-  </si>
-  <si>
-    <t>February 13, 2002</t>
-  </si>
-  <si>
     <t>December 8, 2001</t>
   </si>
   <si>
-    <t>August 15, 1998</t>
-  </si>
-  <si>
-    <t>August 15, 1988</t>
-  </si>
-  <si>
     <t>November 15, 2001</t>
   </si>
   <si>
@@ -193,39 +181,51 @@
     <t>October 20, 1999</t>
   </si>
   <si>
+    <t>April 4, 1993</t>
+  </si>
+  <si>
+    <t>June 22, 1987</t>
+  </si>
+  <si>
+    <t>September 6, 1990</t>
+  </si>
+  <si>
+    <t>April 5, 1989</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
+    <t>tr</t>
+  </si>
+  <si>
     <t>es</t>
   </si>
   <si>
-    <t>tr</t>
-  </si>
-  <si>
-    <t>ao</t>
-  </si>
-  <si>
-    <t>rs</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Cincinnati, LSU</t>
   </si>
   <si>
@@ -235,18 +235,9 @@
     <t>USC</t>
   </si>
   <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Lipscomb</t>
-  </si>
-  <si>
     <t>Arizona State</t>
   </si>
   <si>
-    <t>Maryland</t>
-  </si>
-  <si>
     <t>Kentucky</t>
   </si>
   <si>
@@ -259,45 +250,42 @@
     <t>LSU</t>
   </si>
   <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/martike04.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/e/easonta01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/s/smithja05.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/g/greenja05.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/martike04.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/e/easonta01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/s/smithja05.html</t>
+    <t>https://www.basketball-reference.com/players/s/sengual01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/g/garubus01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/n/nixda01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/p/porteke02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/garubus01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/s/sengual01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/g/gordoer01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/mathega01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/n/nixda01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/chrisjo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/f/fernabr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/marjabo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/w/washity02.html</t>
   </si>
   <si>
@@ -308,6 +296,18 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/daysda01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/k/kaminfr01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/g/greenda02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/walljo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/holidju01.html</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>32</v>
       </c>
       <c r="F2">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
@@ -742,7 +742,7 @@
         <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>81</v>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -765,7 +765,7 @@
         <v>33</v>
       </c>
       <c r="F3">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -774,7 +774,10 @@
         <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>82</v>
@@ -785,19 +788,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
@@ -806,10 +809,10 @@
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>83</v>
@@ -820,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -832,7 +835,7 @@
         <v>35</v>
       </c>
       <c r="F5">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -841,10 +844,7 @@
         <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>84</v>
@@ -855,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -864,22 +864,19 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>85</v>
@@ -896,10 +893,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>220</v>
@@ -908,7 +905,7 @@
         <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
         <v>64</v>
@@ -922,7 +919,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -931,16 +928,16 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
         <v>64</v>
@@ -954,19 +951,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G9" t="s">
         <v>49</v>
@@ -975,10 +972,10 @@
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>88</v>
@@ -989,16 +986,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>215</v>
@@ -1010,10 +1007,10 @@
         <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>89</v>
@@ -1024,19 +1021,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
       </c>
       <c r="F11">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="G11" t="s">
         <v>51</v>
@@ -1045,7 +1042,10 @@
         <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>74</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>90</v>
@@ -1056,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1065,10 +1065,10 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F12">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
@@ -1077,7 +1077,7 @@
         <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
         <v>75</v>
@@ -1091,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1100,19 +1100,19 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
         <v>76</v>
@@ -1126,28 +1126,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="G14" t="s">
         <v>54</v>
       </c>
       <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
         <v>63</v>
       </c>
-      <c r="I14" t="s">
-        <v>69</v>
+      <c r="J14" t="s">
+        <v>77</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>93</v>
@@ -1158,7 +1161,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -1167,10 +1170,10 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F15">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
@@ -1182,7 +1185,7 @@
         <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>94</v>
@@ -1192,20 +1195,17 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
         <v>32</v>
       </c>
       <c r="F16">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
@@ -1214,10 +1214,10 @@
         <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>95</v>
@@ -1227,20 +1227,17 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>12</v>
-      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="G17" t="s">
         <v>57</v>
@@ -1249,10 +1246,10 @@
         <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>96</v>
@@ -1269,10 +1266,10 @@
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F18">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
         <v>58</v>
@@ -1281,7 +1278,7 @@
         <v>59</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J18" t="s">
         <v>80</v>

--- a/rosters/2023/Houston/Houston.xlsx
+++ b/rosters/2023/Houston/Houston.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>No.</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Jae'Sean Tate</t>
   </si>
   <si>
+    <t>Boban Marjanović</t>
+  </si>
+  <si>
     <t>Trevor Hudgins (TW)</t>
   </si>
   <si>
@@ -88,15 +91,6 @@
     <t>Frank Kaminsky</t>
   </si>
   <si>
-    <t>Danny Green</t>
-  </si>
-  <si>
-    <t>John Wall</t>
-  </si>
-  <si>
-    <t>Justin Holiday</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -133,6 +127,9 @@
     <t>6-3</t>
   </si>
   <si>
+    <t>7-3</t>
+  </si>
+  <si>
     <t>6-0</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
     <t>October 28, 1995</t>
   </si>
   <si>
+    <t>August 15, 1988</t>
+  </si>
+  <si>
     <t>March 23, 1999</t>
   </si>
   <si>
@@ -184,15 +184,6 @@
     <t>April 4, 1993</t>
   </si>
   <si>
-    <t>June 22, 1987</t>
-  </si>
-  <si>
-    <t>September 6, 1990</t>
-  </si>
-  <si>
-    <t>April 5, 1989</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -202,6 +193,9 @@
     <t>es</t>
   </si>
   <si>
+    <t>rs</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -217,15 +211,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Cincinnati, LSU</t>
   </si>
   <si>
@@ -253,12 +238,6 @@
     <t>Wisconsin</t>
   </si>
   <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/martike04.html</t>
   </si>
   <si>
@@ -292,6 +271,9 @@
     <t>https://www.basketball-reference.com/players/t/tateja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/marjabo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/hudgitr01.html</t>
   </si>
   <si>
@@ -299,15 +281,6 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/k/kaminfr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/g/greenda02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/walljo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/holidju01.html</t>
   </si>
 </sst>
 </file>
@@ -678,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,25 +700,25 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -759,28 +732,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>216</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -794,28 +767,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -829,25 +802,25 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>178</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -861,25 +834,25 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>235</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -893,25 +866,25 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -925,25 +898,25 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>224</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -957,28 +930,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9">
         <v>203</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -992,28 +965,28 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1027,28 +1000,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <v>197</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1062,28 +1035,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>230</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1091,34 +1064,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1126,34 +1096,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1161,130 +1131,69 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>33</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
         <v>56</v>
       </c>
-      <c r="H16" t="s">
-        <v>59</v>
-      </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17">
-        <v>210</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18">
-        <v>180</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1304,8 +1213,6 @@
     <hyperlink ref="K14" r:id="rId13"/>
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Houston/Houston.xlsx
+++ b/rosters/2023/Houston/Houston.xlsx
@@ -55,24 +55,24 @@
     <t>Jabari Smith Jr.</t>
   </si>
   <si>
+    <t>Alperen Şengün</t>
+  </si>
+  <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Alperen Şengün</t>
-  </si>
-  <si>
     <t>Usman Garuba</t>
   </si>
   <si>
+    <t>Josh Christopher</t>
+  </si>
+  <si>
     <t>Daishen Nix</t>
   </si>
   <si>
     <t>Kevin Porter Jr.</t>
   </si>
   <si>
-    <t>Josh Christopher</t>
-  </si>
-  <si>
     <t>TyTy Washington Jr.</t>
   </si>
   <si>
@@ -82,27 +82,27 @@
     <t>Boban Marjanović</t>
   </si>
   <si>
+    <t>Frank Kaminsky</t>
+  </si>
+  <si>
     <t>Trevor Hudgins (TW)</t>
   </si>
   <si>
     <t>Darius Days (TW)</t>
   </si>
   <si>
-    <t>Frank Kaminsky</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
     <t>PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>6-10</t>
   </si>
   <si>
+    <t>6-9</t>
+  </si>
+  <si>
     <t>6-4</t>
   </si>
   <si>
-    <t>6-9</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
@@ -130,15 +130,15 @@
     <t>7-3</t>
   </si>
   <si>
+    <t>7-0</t>
+  </si>
+  <si>
     <t>6-0</t>
   </si>
   <si>
     <t>6-7</t>
   </si>
   <si>
-    <t>7-0</t>
-  </si>
-  <si>
     <t>January 6, 2001</t>
   </si>
   <si>
@@ -148,24 +148,24 @@
     <t>May 13, 2003</t>
   </si>
   <si>
+    <t>July 25, 2002</t>
+  </si>
+  <si>
     <t>February 9, 2002</t>
   </si>
   <si>
-    <t>July 25, 2002</t>
-  </si>
-  <si>
     <t>March 9, 2002</t>
   </si>
   <si>
+    <t>December 8, 2001</t>
+  </si>
+  <si>
     <t>February 13, 2002</t>
   </si>
   <si>
     <t>May 4, 2000</t>
   </si>
   <si>
-    <t>December 8, 2001</t>
-  </si>
-  <si>
     <t>November 15, 2001</t>
   </si>
   <si>
@@ -175,15 +175,15 @@
     <t>August 15, 1988</t>
   </si>
   <si>
+    <t>April 4, 1993</t>
+  </si>
+  <si>
     <t>March 23, 1999</t>
   </si>
   <si>
     <t>October 20, 1999</t>
   </si>
   <si>
-    <t>April 4, 1993</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -217,27 +217,27 @@
     <t>Auburn</t>
   </si>
   <si>
+    <t>Arizona State</t>
+  </si>
+  <si>
     <t>USC</t>
   </si>
   <si>
-    <t>Arizona State</t>
-  </si>
-  <si>
     <t>Kentucky</t>
   </si>
   <si>
     <t>Ohio State</t>
   </si>
   <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
     <t>Northwest Missouri State University</t>
   </si>
   <si>
     <t>LSU</t>
   </si>
   <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/martike04.html</t>
   </si>
   <si>
@@ -247,24 +247,24 @@
     <t>https://www.basketball-reference.com/players/s/smithja05.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/s/sengual01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/g/greenja05.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/s/sengual01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/g/garubus01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/c/chrisjo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/n/nixda01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/p/porteke02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/chrisjo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/w/washity02.html</t>
   </si>
   <si>
@@ -274,13 +274,13 @@
     <t>https://www.basketball-reference.com/players/m/marjabo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/k/kaminfr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/hudgitr01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/daysda01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/k/kaminfr01.html</t>
   </si>
 </sst>
 </file>
@@ -796,7 +796,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -808,13 +808,13 @@
         <v>33</v>
       </c>
       <c r="F5">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
         <v>62</v>
@@ -828,7 +828,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -840,13 +840,13 @@
         <v>34</v>
       </c>
       <c r="F6">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
         <v>62</v>
@@ -892,19 +892,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
@@ -914,6 +914,9 @@
       </c>
       <c r="I8" t="s">
         <v>62</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>80</v>
@@ -924,7 +927,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -933,10 +936,10 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="G9" t="s">
         <v>48</v>
@@ -945,10 +948,7 @@
         <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>81</v>
@@ -959,19 +959,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
@@ -980,7 +980,7 @@
         <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
         <v>68</v>
@@ -1038,7 +1038,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12">
         <v>230</v>
@@ -1070,7 +1070,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
@@ -1096,19 +1096,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
       </c>
       <c r="F14">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G14" t="s">
         <v>53</v>
@@ -1117,7 +1117,7 @@
         <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
         <v>71</v>
@@ -1131,19 +1131,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>39</v>
       </c>
       <c r="F15">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
@@ -1166,19 +1166,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
         <v>55</v>
@@ -1187,7 +1187,7 @@
         <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
         <v>73</v>

--- a/rosters/2023/Houston/Houston.xlsx
+++ b/rosters/2023/Houston/Houston.xlsx
@@ -55,30 +55,30 @@
     <t>Jabari Smith Jr.</t>
   </si>
   <si>
+    <t>Jalen Green</t>
+  </si>
+  <si>
     <t>Alperen Şengün</t>
   </si>
   <si>
-    <t>Jalen Green</t>
-  </si>
-  <si>
     <t>Usman Garuba</t>
   </si>
   <si>
     <t>Josh Christopher</t>
   </si>
   <si>
+    <t>Kevin Porter Jr.</t>
+  </si>
+  <si>
     <t>Daishen Nix</t>
   </si>
   <si>
-    <t>Kevin Porter Jr.</t>
+    <t>Jae'Sean Tate</t>
   </si>
   <si>
     <t>TyTy Washington Jr.</t>
   </si>
   <si>
-    <t>Jae'Sean Tate</t>
-  </si>
-  <si>
     <t>Boban Marjanović</t>
   </si>
   <si>
@@ -97,12 +97,12 @@
     <t>PF</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>6-10</t>
   </si>
   <si>
+    <t>6-4</t>
+  </si>
+  <si>
     <t>6-9</t>
   </si>
   <si>
-    <t>6-4</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
@@ -148,30 +148,30 @@
     <t>May 13, 2003</t>
   </si>
   <si>
+    <t>February 9, 2002</t>
+  </si>
+  <si>
     <t>July 25, 2002</t>
   </si>
   <si>
-    <t>February 9, 2002</t>
-  </si>
-  <si>
     <t>March 9, 2002</t>
   </si>
   <si>
     <t>December 8, 2001</t>
   </si>
   <si>
+    <t>May 4, 2000</t>
+  </si>
+  <si>
     <t>February 13, 2002</t>
   </si>
   <si>
-    <t>May 4, 2000</t>
+    <t>October 28, 1995</t>
   </si>
   <si>
     <t>November 15, 2001</t>
   </si>
   <si>
-    <t>October 28, 1995</t>
-  </si>
-  <si>
     <t>August 15, 1988</t>
   </si>
   <si>
@@ -223,12 +223,12 @@
     <t>USC</t>
   </si>
   <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
     <t>Wisconsin</t>
   </si>
   <si>
@@ -247,28 +247,28 @@
     <t>https://www.basketball-reference.com/players/s/smithja05.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/g/greenja05.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/sengual01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/greenja05.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/g/garubus01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/chrisjo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/p/porteke02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/n/nixda01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/p/porteke02.html</t>
+    <t>https://www.basketball-reference.com/players/t/tateja01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/washity02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/t/tateja01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/marjabo01.html</t>
@@ -796,7 +796,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -808,13 +808,13 @@
         <v>33</v>
       </c>
       <c r="F5">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
         <v>62</v>
@@ -828,7 +828,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -840,13 +840,13 @@
         <v>34</v>
       </c>
       <c r="F6">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
         <v>62</v>
@@ -898,7 +898,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
@@ -927,7 +927,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -936,10 +936,10 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="G9" t="s">
         <v>48</v>
@@ -948,7 +948,10 @@
         <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>81</v>
@@ -959,7 +962,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -968,10 +971,10 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
@@ -980,10 +983,7 @@
         <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>82</v>
@@ -994,19 +994,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -1015,7 +1015,7 @@
         <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
         <v>69</v>
@@ -1029,19 +1029,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
@@ -1050,7 +1050,7 @@
         <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J12" t="s">
         <v>70</v>
@@ -1070,7 +1070,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
@@ -1102,7 +1102,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>

--- a/rosters/2023/Houston/Houston.xlsx
+++ b/rosters/2023/Houston/Houston.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
   <si>
     <t>No.</t>
   </si>
@@ -91,6 +91,12 @@
     <t>Darius Days (TW)</t>
   </si>
   <si>
+    <t>D.J. Augustin</t>
+  </si>
+  <si>
+    <t>Willie Cauley-Stein</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
@@ -139,6 +145,9 @@
     <t>6-7</t>
   </si>
   <si>
+    <t>5-11</t>
+  </si>
+  <si>
     <t>January 6, 2001</t>
   </si>
   <si>
@@ -184,6 +193,12 @@
     <t>October 20, 1999</t>
   </si>
   <si>
+    <t>November 10, 1987</t>
+  </si>
+  <si>
+    <t>August 18, 1993</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
@@ -211,6 +226,9 @@
     <t>7</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>Cincinnati, LSU</t>
   </si>
   <si>
@@ -238,6 +256,9 @@
     <t>LSU</t>
   </si>
   <si>
+    <t>Texas</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/martike04.html</t>
   </si>
   <si>
@@ -281,6 +302,12 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/daysda01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/a/augusdj01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/c/caulewi01.html</t>
   </si>
 </sst>
 </file>
@@ -651,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,25 +727,25 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -732,28 +759,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>216</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -767,28 +794,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -802,25 +829,25 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>178</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -834,25 +861,25 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>235</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -866,25 +893,25 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -898,28 +925,28 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>215</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -933,28 +960,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F9">
         <v>203</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -968,25 +995,25 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1000,28 +1027,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11">
         <v>230</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1035,28 +1062,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <v>197</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1070,25 +1097,25 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13">
         <v>290</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1102,28 +1129,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <v>240</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1137,28 +1164,28 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15">
         <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1172,28 +1199,92 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16">
         <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17">
+        <v>183</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" t="s">
         <v>61</v>
       </c>
-      <c r="J16" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>88</v>
+      <c r="I17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>240</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1213,6 +1304,8 @@
     <hyperlink ref="K14" r:id="rId13"/>
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
